--- a/Assignment1/Data/Result.xlsx
+++ b/Assignment1/Data/Result.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15">
-  <x:fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <x:workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiexin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Santana\Documents\UiPath\Assignment1\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7961168-1107-47EF-9074-1EA4928063C9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="24975" windowHeight="10155" firstSheet="0" activeTab="0"/>
+    <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,9 +26,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <x:si>
-    <x:t>478515</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+  <x:si>
+    <x:t>Actions</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WIID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Description</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Status</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>972265</x:t>
   </x:si>
   <x:si>
     <x:t>Calculate Client Security Hash</x:t>
@@ -39,25 +58,127 @@
     <x:t>Open</x:t>
   </x:si>
   <x:si>
-    <x:t>2017-03-15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>163485</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-10-07</x:t>
-  </x:si>
-  <x:si>
-    <x:t>473295</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-11-24</x:t>
+    <x:t>2019-04-13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>766505</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-01-18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>804055</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-08-14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>802015</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-12-10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>145315</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-11-03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>270245</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-01-05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>862585</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-04-18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>893695</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-03-15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>254735</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-06-14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>204755</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-06-09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>223855</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-11-13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>411155</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-09-12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>864035</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-05-08</x:t>
+  </x:si>
+  <x:si>
+    <x:t>832505</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-05-19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>153795</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-09-24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>305645</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-08-22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>645775</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-11-16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>852155</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-06-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>119075</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-04-23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>979955</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-01-12</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
@@ -100,8 +221,9 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="2">
+  <x:cellXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -384,65 +506,377 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1"/>
+  <x:dimension ref="A1:F4"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0"/>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="A3" sqref="A3 A3:A3 A1:XFD1048576"/>
+    </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <x:sheetData>
-    <x:row r="1" spans="1:6">
-      <x:c r="B1" s="1" t="s">
+    <x:row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="A1" s="2" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C1" s="1" t="s">
+      <x:c r="B1" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D1" s="1" t="s">
+      <x:c r="C1" s="2" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="E1" s="1" t="s">
+      <x:c r="D1" s="2" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="F1" s="1" t="s">
+      <x:c r="E1" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:6">
-      <x:c r="B2" s="1" t="s">
+      <x:c r="F1" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="C2" s="1" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D2" s="1" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E2" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="F2" s="1" t="s">
+    </x:row>
+    <x:row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="A2" s="2" t="s"/>
+      <x:c r="B2" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-    </x:row>
-    <x:row r="3" spans="1:6">
-      <x:c r="B3" s="1" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C3" s="1" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D3" s="1" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E3" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="F3" s="1" t="s">
-        <x:v>8</x:v>
+      <x:c r="C2" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D2" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E2" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F2" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="B3" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C3" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D3" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E3" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F3" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="B4" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C4" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D4" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E4" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F4" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:6">
+      <x:c r="B5" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D5" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E5" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F5" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:6">
+      <x:c r="B6" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D6" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E6" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F6" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:6">
+      <x:c r="B7" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D7" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E7" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F7" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:6">
+      <x:c r="B8" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D8" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E8" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F8" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:6">
+      <x:c r="B9" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D9" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E9" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F9" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:6">
+      <x:c r="B10" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C10" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D10" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E10" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F10" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:6">
+      <x:c r="B11" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C11" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D11" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E11" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F11" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:6">
+      <x:c r="B12" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C12" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D12" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E12" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F12" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:6">
+      <x:c r="B13" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D13" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E13" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F13" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:6">
+      <x:c r="B14" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D14" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E14" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F14" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:6">
+      <x:c r="B15" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D15" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E15" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F15" s="2" t="s">
+        <x:v>36</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:6">
+      <x:c r="B16" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D16" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E16" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F16" s="2" t="s">
+        <x:v>38</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:6">
+      <x:c r="B17" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D17" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E17" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F17" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:6">
+      <x:c r="B18" s="2" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D18" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E18" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F18" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:6">
+      <x:c r="B19" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D19" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E19" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F19" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:6">
+      <x:c r="B20" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D20" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E20" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F20" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:6">
+      <x:c r="B21" s="2" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D21" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E21" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F21" s="2" t="s">
+        <x:v>48</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
